--- a/WikipediaJulianDay.xlsx
+++ b/WikipediaJulianDay.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1e4a43c5a20a8a9/Documents/Astronomy/Calen-Easter-Time/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_B9598CB0878D77596A6808B025C49E592FB4F88E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{589FDDC3-81BF-4E24-BCA4-BF681E009436}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="-15" windowWidth="8835" windowHeight="7485"/>
+    <workbookView xWindow="21345" yWindow="495" windowWidth="16500" windowHeight="20265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Modulo behavior" sheetId="2" r:id="rId2"/>
+    <sheet name="formula comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Montenbruck" sheetId="3" r:id="rId2"/>
+    <sheet name="Known Periods" sheetId="4" r:id="rId3"/>
+    <sheet name="Modulo behavior" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="a">Sheet1!$C$5</definedName>
-    <definedName name="b">Sheet1!$C$15</definedName>
-    <definedName name="hh">Sheet1!$C$16</definedName>
-    <definedName name="littleu">Sheet1!$C$17</definedName>
-    <definedName name="m">Sheet1!$C$7</definedName>
-    <definedName name="mm">Sheet1!$C$14</definedName>
-    <definedName name="ss">Sheet1!$C$12</definedName>
-    <definedName name="U">Sheet1!$C$11</definedName>
-    <definedName name="y">Sheet1!$C$6</definedName>
+    <definedName name="a">'formula comparison'!$C$5</definedName>
+    <definedName name="b">'formula comparison'!$C$15</definedName>
+    <definedName name="hh">'formula comparison'!$C$16</definedName>
+    <definedName name="littleu">'formula comparison'!$C$17</definedName>
+    <definedName name="m">'formula comparison'!$C$7</definedName>
+    <definedName name="mm">'formula comparison'!$C$14</definedName>
+    <definedName name="ss">'formula comparison'!$C$12</definedName>
+    <definedName name="U">'formula comparison'!$C$11</definedName>
+    <definedName name="y">'formula comparison'!$C$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>Julian date calculation</t>
   </si>
@@ -268,13 +279,79 @@
   </si>
   <si>
     <t>the result is the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added to Wikipedia on </t>
+  </si>
+  <si>
+    <t>by Mathnerd314159</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gregorian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Day</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>Sample data from _Calendrical Calculations_  4th ed. 2018, page 447</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Additional test cases to stress the algorithm</t>
+  </si>
+  <si>
+    <t>R &amp; D page</t>
+  </si>
+  <si>
+    <t>Known JD intervals</t>
+  </si>
+  <si>
+    <t>The Gregorian calendar are known to have a 400 leap year cycle</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus </t>
+  </si>
+  <si>
+    <t>years divisible by 4</t>
+  </si>
+  <si>
+    <t>Minus</t>
+  </si>
+  <si>
+    <t>years divisible by 100 but not 400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -318,8 +395,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +424,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,13 +497,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +528,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,10 +542,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Given constant" xfId="2"/>
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
+    <cellStyle name="Given constant" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,10 +564,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,9 +609,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,26 +644,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,26 +679,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,10 +854,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1065,12 +1153,12 @@
       <c r="K23" s="14">
         <v>1</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1150,12 +1238,12 @@
       <c r="K25" s="14">
         <v>1</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -1556,7 +1644,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DDA45A-59CC-4D64-8359-E55BE9BB6244}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="17">
+        <v>45894.896527777775</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>1507231.5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>-586</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7</v>
+      </c>
+      <c r="D5" s="18">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" ref="E5:E37" si="0">IF(C5&lt;=2,B5-1,B5)</f>
+        <v>-586</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" ref="F5:F37" si="1">IF(C5&lt;=2,C5+12,C5)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" ref="G5:G37" si="2">FLOOR(B5/400,1)-FLOOR(B5/100,1)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="19">
+        <f>FLOOR(365.25*E5,1)+G5+FLOOR(30.6*(F5+1),1)+D5+1720996.5</f>
+        <v>1507231.5</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:I37" si="3">A5-H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>1660037.5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-168</v>
+      </c>
+      <c r="C6" s="18">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>-168</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" ref="H6:H37" si="4">FLOOR(365.25*E6,1)+G6+FLOOR(30.6*(F6+1),1)+D6+1720996.5</f>
+        <v>1660037.5</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>1746893.5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>70</v>
+      </c>
+      <c r="C7" s="18">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="4"/>
+        <v>1746893.5</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>1770641.5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>135</v>
+      </c>
+      <c r="C8" s="18">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="4"/>
+        <v>1770641.5</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1892731.5</v>
+      </c>
+      <c r="B9" s="18">
+        <v>470</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="4"/>
+        <v>1892731.5</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>1931579.5</v>
+      </c>
+      <c r="B10" s="18">
+        <v>576</v>
+      </c>
+      <c r="C10" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="4"/>
+        <v>1931579.5</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>1974851.5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>694</v>
+      </c>
+      <c r="C11" s="18">
+        <v>11</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>694</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="4"/>
+        <v>1974851.5</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>2091164.5</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1013</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
+      <c r="D12" s="18">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>1013</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="4"/>
+        <v>2091164.5</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>2121509.5</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1096</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>1096</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="4"/>
+        <v>2121509.5</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>2155779.5</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1190</v>
+      </c>
+      <c r="C14" s="18">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" si="4"/>
+        <v>2155779.5</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2174029.5</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1240</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="4"/>
+        <v>2174029.5</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>2191584.5</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1288</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>1288</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="4"/>
+        <v>2191584.5</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2195261.5</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1298</v>
+      </c>
+      <c r="C17" s="18">
+        <v>4</v>
+      </c>
+      <c r="D17" s="18">
+        <v>27</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>1298</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="4"/>
+        <v>2195261.5</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>2229274.5</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1391</v>
+      </c>
+      <c r="C18" s="18">
+        <v>6</v>
+      </c>
+      <c r="D18" s="18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>1391</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="4"/>
+        <v>2229274.5</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2245580.5</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1436</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="4"/>
+        <v>2245580.5</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2266100.5</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1492</v>
+      </c>
+      <c r="C20" s="18">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>1492</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="4"/>
+        <v>2266100.5</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2288542.5</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1553</v>
+      </c>
+      <c r="C21" s="18">
+        <v>9</v>
+      </c>
+      <c r="D21" s="18">
+        <v>19</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>1553</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="H21" s="19">
+        <f t="shared" si="4"/>
+        <v>2288542.5</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2290901.5</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1560</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18">
+        <v>5</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="H22" s="19">
+        <f t="shared" si="4"/>
+        <v>2290901.5</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2323140.5</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1648</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6</v>
+      </c>
+      <c r="D23" s="18">
+        <v>10</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>1648</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="H23" s="19">
+        <f t="shared" si="4"/>
+        <v>2323140.5</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2334848.5</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1680</v>
+      </c>
+      <c r="C24" s="18">
+        <v>6</v>
+      </c>
+      <c r="D24" s="18">
+        <v>30</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
+      <c r="H24" s="19">
+        <f t="shared" si="4"/>
+        <v>2334848.5</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2348020.5</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1716</v>
+      </c>
+      <c r="C25" s="18">
+        <v>7</v>
+      </c>
+      <c r="D25" s="18">
+        <v>24</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>1716</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="4"/>
+        <v>2348020.5</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>2366978.5</v>
+      </c>
+      <c r="B26" s="18">
+        <v>1768</v>
+      </c>
+      <c r="C26" s="18">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18">
+        <v>19</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>1768</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="4"/>
+        <v>2366978.5</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2385648.5</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1819</v>
+      </c>
+      <c r="C27" s="18">
+        <v>8</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>1819</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="4"/>
+        <v>2385648.5</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>2392825.5</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1839</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18">
+        <v>27</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>1839</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="4"/>
+        <v>2392825.5</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2416223.5</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1903</v>
+      </c>
+      <c r="C29" s="18">
+        <v>4</v>
+      </c>
+      <c r="D29" s="18">
+        <v>19</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>1903</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="4"/>
+        <v>2416223.5</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>2425848.5</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1929</v>
+      </c>
+      <c r="C30" s="18">
+        <v>8</v>
+      </c>
+      <c r="D30" s="18">
+        <v>25</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>1929</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="4"/>
+        <v>2425848.5</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2430266.5</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1941</v>
+      </c>
+      <c r="C31" s="18">
+        <v>9</v>
+      </c>
+      <c r="D31" s="18">
+        <v>29</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>1941</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H31" s="19">
+        <f t="shared" si="4"/>
+        <v>2430266.5</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>2430833.5</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1943</v>
+      </c>
+      <c r="C32" s="18">
+        <v>4</v>
+      </c>
+      <c r="D32" s="18">
+        <v>19</v>
+      </c>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>1943</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" si="4"/>
+        <v>2430833.5</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2431004.5</v>
+      </c>
+      <c r="B33" s="18">
+        <v>1943</v>
+      </c>
+      <c r="C33" s="18">
+        <v>10</v>
+      </c>
+      <c r="D33" s="18">
+        <v>7</v>
+      </c>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>1943</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="4"/>
+        <v>2431004.5</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>2448698.5</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1992</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3</v>
+      </c>
+      <c r="D34" s="18">
+        <v>17</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="4"/>
+        <v>2448698.5</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>2450138.5</v>
+      </c>
+      <c r="B35" s="21">
+        <v>1996</v>
+      </c>
+      <c r="C35" s="21">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21">
+        <v>25</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="4"/>
+        <v>2450138.5</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2465737.5</v>
+      </c>
+      <c r="B36" s="18">
+        <v>2038</v>
+      </c>
+      <c r="C36" s="18">
+        <v>11</v>
+      </c>
+      <c r="D36" s="18">
+        <v>10</v>
+      </c>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="4"/>
+        <v>2465737.5</v>
+      </c>
+      <c r="I36" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2486076.5</v>
+      </c>
+      <c r="B37" s="18">
+        <v>2094</v>
+      </c>
+      <c r="C37" s="18">
+        <v>7</v>
+      </c>
+      <c r="D37" s="18">
+        <v>18</v>
+      </c>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>2094</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="4"/>
+        <v>2486076.5</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>-4713</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>24.5</v>
+      </c>
+      <c r="E42" s="20">
+        <f>IF(C42&lt;=2,B42-1,B42)</f>
+        <v>-4713</v>
+      </c>
+      <c r="F42" s="20">
+        <f>IF(C42&lt;=2,C42+12,C42)</f>
+        <v>11</v>
+      </c>
+      <c r="G42" s="20">
+        <f>FLOOR(B42/400,1)-FLOOR(B42/100,1)</f>
+        <v>36</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" ref="H42:H44" si="5">FLOOR(365.25*E42,1)+G42+FLOOR(30.6*(F42+1),1)+D42+1720996.5</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <f>A42-H42</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>146097</v>
+      </c>
+      <c r="B43">
+        <v>-4313</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>24.5</v>
+      </c>
+      <c r="E43" s="20">
+        <f>IF(C43&lt;=2,B43-1,B43)</f>
+        <v>-4313</v>
+      </c>
+      <c r="F43" s="20">
+        <f>IF(C43&lt;=2,C43+12,C43)</f>
+        <v>11</v>
+      </c>
+      <c r="G43" s="20">
+        <f>FLOOR(B43/400,1)-FLOOR(B43/100,1)</f>
+        <v>33</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" si="5"/>
+        <v>146097</v>
+      </c>
+      <c r="I43" s="18">
+        <f>A43-H43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-1460970</v>
+      </c>
+      <c r="B44">
+        <v>-8713</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>24.5</v>
+      </c>
+      <c r="E44" s="20">
+        <f>IF(C44&lt;=2,B44-1,B44)</f>
+        <v>-8713</v>
+      </c>
+      <c r="F44" s="20">
+        <f>IF(C44&lt;=2,C44+12,C44)</f>
+        <v>11</v>
+      </c>
+      <c r="G44" s="20">
+        <f>FLOOR(B44/400,1)-FLOOR(B44/100,1)</f>
+        <v>66</v>
+      </c>
+      <c r="H44" s="19">
+        <f t="shared" si="5"/>
+        <v>-1460970</v>
+      </c>
+      <c r="I44" s="18">
+        <f>A44-H44</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CA2B9D-99F5-42BE-AF6F-FA4D9F47A476}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>365</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="23">
+        <f>400*366</f>
+        <v>146400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="23">
+        <f>E4+B5</f>
+        <v>146500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="23">
+        <f>E5-3</f>
+        <v>146497</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1608,5 +3094,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>